--- a/cmd/excel/roi.xlsx
+++ b/cmd/excel/roi.xlsx
@@ -562,9 +562,6 @@
     <t>1430</t>
   </si>
   <si>
-    <t>0130</t>
-  </si>
-  <si>
     <t>0140</t>
   </si>
   <si>
@@ -684,7 +681,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
+    <t>0130</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1197,7 +1198,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1211,7 +1212,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>95</v>
@@ -1220,10 +1221,10 @@
         <v>51</v>
       </c>
       <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
         <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
       </c>
       <c r="P1" t="s">
         <v>52</v>
@@ -1269,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1277,7 +1278,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1308,7 +1309,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="2"/>
       <c r="P3" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1316,7 +1317,7 @@
         <v>55</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -1347,7 +1348,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="15"/>
       <c r="P4" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1355,7 +1356,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -1386,7 +1387,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="2"/>
       <c r="P5" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1394,7 +1395,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1425,15 +1426,15 @@
       <c r="N6" s="8"/>
       <c r="O6" s="2"/>
       <c r="P6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="334.5">
       <c r="A7" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -1468,15 +1469,15 @@
         <v>14</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="45">
       <c r="A8" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>0</v>
@@ -1509,15 +1510,15 @@
         <v>16</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="199.5">
       <c r="A9" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>17</v>
@@ -1552,15 +1553,15 @@
         <v>4</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
@@ -1591,15 +1592,15 @@
       <c r="N10" s="8"/>
       <c r="O10" s="15"/>
       <c r="P10" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>20</v>
@@ -1630,15 +1631,15 @@
       <c r="N11" s="8"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
@@ -1669,15 +1670,15 @@
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
@@ -1708,15 +1709,15 @@
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
@@ -1747,15 +1748,15 @@
       <c r="N14" s="8"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -1786,15 +1787,15 @@
       <c r="N15" s="8"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>24</v>
@@ -1825,15 +1826,15 @@
       <c r="N16" s="8"/>
       <c r="O16" s="2"/>
       <c r="P16" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>24</v>
@@ -1864,15 +1865,15 @@
       <c r="N17" s="8"/>
       <c r="O17" s="2"/>
       <c r="P17" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>24</v>
@@ -1903,15 +1904,15 @@
       <c r="N18" s="8"/>
       <c r="O18" s="2"/>
       <c r="P18" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>24</v>
@@ -1942,15 +1943,15 @@
       <c r="N19" s="8"/>
       <c r="O19" s="2"/>
       <c r="P19" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
@@ -1981,15 +1982,15 @@
       <c r="N20" s="8"/>
       <c r="O20" s="2"/>
       <c r="P20" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
@@ -2020,15 +2021,15 @@
       <c r="N21" s="8"/>
       <c r="O21" s="2"/>
       <c r="P21" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
@@ -2059,15 +2060,15 @@
       <c r="N22" s="8"/>
       <c r="O22" s="2"/>
       <c r="P22" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
@@ -2098,15 +2099,15 @@
       <c r="N23" s="8"/>
       <c r="O23" s="2"/>
       <c r="P23" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
@@ -2137,15 +2138,15 @@
       <c r="N24" s="8"/>
       <c r="O24" s="2"/>
       <c r="P24" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
@@ -2176,15 +2177,15 @@
       <c r="N25" s="8"/>
       <c r="O25" s="2"/>
       <c r="P25" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="45">
       <c r="A26" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
@@ -2219,15 +2220,15 @@
         <v>30</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="170.25">
       <c r="A27" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>31</v>
@@ -2262,15 +2263,15 @@
         <v>34</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="234">
       <c r="A28" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>35</v>
@@ -2305,15 +2306,15 @@
         <v>38</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="101.25">
       <c r="A29" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>39</v>
@@ -2348,15 +2349,15 @@
         <v>42</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="45">
       <c r="A30" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>43</v>
@@ -2391,15 +2392,15 @@
         <v>45</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="45">
       <c r="A31" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>46</v>
@@ -2434,15 +2435,15 @@
         <v>16</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="45">
       <c r="A32" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>46</v>
@@ -2477,15 +2478,15 @@
         <v>16</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="45">
       <c r="A33" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>46</v>
@@ -2520,15 +2521,15 @@
         <v>16</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="243.75">
       <c r="A34" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>48</v>
@@ -2563,7 +2564,7 @@
         <v>50</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
